--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/98.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/98.xlsx
@@ -479,13 +479,13 @@
         <v>-3.68623559107218</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.524021417304525</v>
+        <v>-8.463967024169527</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.154328054142275</v>
+        <v>-2.18228012070936</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.848242747118235</v>
+        <v>-5.886406809901866</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.605286372104548</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.225585557381258</v>
+        <v>-9.153198214969354</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.072226223021811</v>
+        <v>-2.095255583720407</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.773616620920397</v>
+        <v>-5.806164085784927</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.418507999843124</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.805207988790155</v>
+        <v>-9.726732725556849</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.165482696163425</v>
+        <v>-2.192007701720763</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.623670476474107</v>
+        <v>-5.652342619697487</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.061076332712026</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.46172151478851</v>
+        <v>-10.37702740770538</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.061228688634761</v>
+        <v>-2.092637123152062</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.520503130081306</v>
+        <v>-5.544265659739039</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.532329587926452</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.14622638426247</v>
+        <v>-11.05177851156226</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.194063193266913</v>
+        <v>-2.219619368413963</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.056813040335894</v>
+        <v>-5.080470831570893</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.819784691411281</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.64321020013439</v>
+        <v>-11.55428727923339</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.96845663069829</v>
+        <v>-1.99902715783372</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.985459989848486</v>
+        <v>-4.987842788965681</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.930661000198155</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.25555029634476</v>
+        <v>-12.1710002045929</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.821037300700454</v>
+        <v>-1.854972549666208</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.574741357400698</v>
+        <v>-4.57369397317336</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.872852895180237</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.86618839318571</v>
+        <v>-12.78149428610258</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.739878115384594</v>
+        <v>-1.772844533940061</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.987630128766335</v>
+        <v>-3.992304080880831</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.665489086478241</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.4811076730559</v>
+        <v>-13.40151956408105</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.671994525150245</v>
+        <v>-1.692313779160604</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.619474572856997</v>
+        <v>-3.624790047810738</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.3291589098291</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.34276449228126</v>
+        <v>-14.25635529352587</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.496047067260288</v>
+        <v>-1.519403735529927</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.125135402159104</v>
+        <v>-3.120566188467342</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.889162588038333</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.99381852799461</v>
+        <v>-14.90340308456965</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.361942609252488</v>
+        <v>-1.383125955250401</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.711903047565705</v>
+        <v>-2.703851281318043</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.369146865906388</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.72071627407009</v>
+        <v>-15.63994985783948</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.19447896360397</v>
+        <v>-1.217154832125839</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.105690149085262</v>
+        <v>-2.101762458232745</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.795716904577476</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.37552780069901</v>
+        <v>-16.28588480314172</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9789796588291588</v>
+        <v>-0.999809512650345</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.400355425790112</v>
+        <v>-1.401861040616911</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.192773499396136</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.00658988997305</v>
+        <v>-16.92509030478331</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7520114967649957</v>
+        <v>-0.7753027035204264</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.225219690676343</v>
+        <v>-1.228924812380551</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.582195221879366</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.85138382313827</v>
+        <v>-17.77975583429119</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5570147382403277</v>
+        <v>-0.5877947422212256</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7083355744849975</v>
+        <v>-0.7030593764397819</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.983292321843938</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.7315138816733</v>
+        <v>-18.64797189724025</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2573842954045849</v>
+        <v>-0.2801779946520299</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4960046069978842</v>
+        <v>-0.4920114546311578</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.412374545567391</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.47640045185331</v>
+        <v>-19.39543765108008</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1446202910287982</v>
+        <v>-0.1515592115349131</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.08540380527567122</v>
+        <v>-0.08439569795685832</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.88235473821795</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.15359981634159</v>
+        <v>-20.06937703216077</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09169577526435731</v>
+        <v>0.08309413229734328</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05374118932619343</v>
+        <v>0.05563957323824371</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.402540074589357</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.62310288854873</v>
+        <v>-20.55910771225837</v>
       </c>
       <c r="F20" t="n">
-        <v>0.179414204303922</v>
+        <v>0.1761934978048574</v>
       </c>
       <c r="G20" t="n">
-        <v>0.30644881877719</v>
+        <v>0.3031888353696002</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.9787614591525492</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.27473298558712</v>
+        <v>-21.2048200884123</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4207184379797752</v>
+        <v>0.4210850224593434</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4482384585530833</v>
+        <v>0.4402783384253139</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.6132975780808079</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.70138495059329</v>
+        <v>-21.62995334628883</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5262685834897707</v>
+        <v>0.5328671041220007</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6451205086869599</v>
+        <v>0.6216591019945868</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.3043323717545243</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.07015584473618</v>
+        <v>-21.99816127140953</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6708076068624265</v>
+        <v>0.675180436011563</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6862303396099798</v>
+        <v>0.6502919683094417</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.0499725518884842</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.35821269185984</v>
+        <v>-22.29114082440168</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8590356448179222</v>
+        <v>0.860096121348102</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8514682937754045</v>
+        <v>0.7988634209573492</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.1558724014316628</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.48910953567142</v>
+        <v>-22.43641301673347</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8630680740931738</v>
+        <v>0.8674278109394685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9598201920935294</v>
+        <v>0.9029472285490714</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.3212797649059411</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.70717493180321</v>
+        <v>-22.65642916598868</v>
       </c>
       <c r="F26" t="n">
-        <v>1.025163875576584</v>
+        <v>1.031042319552519</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7723122307943286</v>
+        <v>0.6964292435236844</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.4553271425654366</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.57809791808663</v>
+        <v>-22.52960402836088</v>
       </c>
       <c r="F27" t="n">
-        <v>0.983163768060327</v>
+        <v>0.9926556876205784</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6610276566396571</v>
+        <v>0.5845947926496603</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.5669420012746218</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.68468235552112</v>
+        <v>-22.63443409721458</v>
       </c>
       <c r="F28" t="n">
-        <v>0.983307783391586</v>
+        <v>0.991241718913672</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2254729257011143</v>
+        <v>0.1531641371062612</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6640332754594854</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.43348034089692</v>
+        <v>-22.37524577785693</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9543345172028462</v>
+        <v>0.9588513616832417</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.004846865890530725</v>
+        <v>-0.08591440508649854</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7523257512702405</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.28585153405362</v>
+        <v>-22.21995797385122</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8917533096193956</v>
+        <v>0.8957333696832803</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4740095382237844</v>
+        <v>-0.5490415258097164</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8348797626620441</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.81058784859612</v>
+        <v>-21.75554780744951</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8804415599641443</v>
+        <v>0.8892526797766259</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7728020736776567</v>
+        <v>-0.8406594793063229</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9118569029748698</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.33849250042632</v>
+        <v>-21.28321679782856</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8348934383777793</v>
+        <v>0.8344613923840023</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.198262639125229</v>
+        <v>-1.261393723428032</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9807411697028718</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.14125695811572</v>
+        <v>-21.07889831968058</v>
       </c>
       <c r="F33" t="n">
-        <v>0.736308397979582</v>
+        <v>0.7410739962139703</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.610159578828773</v>
+        <v>-1.669441526096108</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.036743344109906</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.64418149612391</v>
+        <v>-20.58698122500841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.696062659044116</v>
+        <v>0.6944653980974255</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.006110093671094</v>
+        <v>-2.054119568191703</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.073883617739078</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.25966056166241</v>
+        <v>-20.20099395262864</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6546255205500531</v>
+        <v>0.6467832311478592</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.201211590618496</v>
+        <v>-2.248527173088494</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.085664208971268</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.71039918054348</v>
+        <v>-19.6456446506883</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6708076068624265</v>
+        <v>0.6629522251573908</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.528335869421864</v>
+        <v>-2.572561668421214</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.066155179304475</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.33212327453749</v>
+        <v>-19.27382324998328</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5912849594017824</v>
+        <v>0.5833772084853798</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.759493568395379</v>
+        <v>-2.807555412127355</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.010313449613596</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.61878915420604</v>
+        <v>-18.57157831015878</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7680834169764512</v>
+        <v>0.7579630668797969</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.83360909478239</v>
+        <v>-2.871589865326238</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9151246885731453</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.17653116421254</v>
+        <v>-18.11683026325426</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8674278109394685</v>
+        <v>0.8513766476555125</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.749242295270308</v>
+        <v>-2.792787294521888</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7789728685753491</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.57486129481817</v>
+        <v>-17.52391914446102</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7553707909171351</v>
+        <v>0.7372117668756611</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.804321613325449</v>
+        <v>-2.847382197371886</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6019889215057099</v>
       </c>
       <c r="E41" t="n">
-        <v>-17.02671275944079</v>
+        <v>-16.96644888946032</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9192078686784951</v>
+        <v>0.8975793843839637</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.977375672287384</v>
+        <v>-3.007239215069361</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3856065649293628</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.38186447527441</v>
+        <v>-16.32487368100438</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8995955990215895</v>
+        <v>0.8782551453895761</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.123184649035688</v>
+        <v>-3.148596808851478</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.132923428050771</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.81767786891591</v>
+        <v>-15.76604182650814</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9228737134741785</v>
+        <v>0.8962046925855824</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.143333703109104</v>
+        <v>-3.160615542860182</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.1520132412453382</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.21880975232967</v>
+        <v>-15.17686201402478</v>
       </c>
       <c r="F44" t="n">
-        <v>1.0120846650377</v>
+        <v>0.9818021685647875</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.311595979230967</v>
+        <v>-3.319988145352514</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.4651677389494406</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.72368504346128</v>
+        <v>-14.6636044657206</v>
       </c>
       <c r="F45" t="n">
-        <v>0.97757335474691</v>
+        <v>0.9433369828157964</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.412563818746359</v>
+        <v>-3.417329416980747</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.8014755569210132</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.25691826254806</v>
+        <v>-14.19177096360763</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7866090254974936</v>
+        <v>0.7521369921152288</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.44488871446258</v>
+        <v>-3.446341960078012</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.155236954663565</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.48773237829381</v>
+        <v>-13.41758381966785</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8402220056343618</v>
+        <v>0.804650218813392</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.317343500178485</v>
+        <v>-3.323365959485679</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.519946654336111</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.91684251288035</v>
+        <v>-12.84840904592665</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7629905111710197</v>
+        <v>0.7263713401227119</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.327450757972298</v>
+        <v>-3.338644676901973</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.888557707128337</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.50000977500547</v>
+        <v>-12.43868542849483</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7273925397443666</v>
+        <v>0.68774904673962</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.463335769166572</v>
+        <v>-3.47606148752873</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.253400865985804</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.9520838087764</v>
+        <v>-11.88947641658726</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6722477601750163</v>
+        <v>0.6373174961932911</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.617680927367681</v>
+        <v>-3.622839294687321</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.606512153506656</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.47382198596814</v>
+        <v>-11.42162297453818</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6801424187885772</v>
+        <v>0.6411797255316004</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.794924523238969</v>
+        <v>-3.798027399012458</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.940252866688283</v>
       </c>
       <c r="E52" t="n">
-        <v>-11.01416432549798</v>
+        <v>-10.96103576056626</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6196690719626444</v>
+        <v>0.5842674850786171</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.844308689557959</v>
+        <v>-3.853368563124434</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.246857582374129</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.40878933439941</v>
+        <v>-10.35539892341085</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5961945729674296</v>
+        <v>0.5593135558622873</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.001586523595615</v>
+        <v>-4.011052258550182</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.519634238610848</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.974740218287666</v>
+        <v>-9.925905928688028</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5899888214204515</v>
+        <v>0.5449643919477555</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.060698270926007</v>
+        <v>-4.074419004304136</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.754877821641642</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.478816878945924</v>
+        <v>-9.433373495782293</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5019692694155271</v>
+        <v>0.4566568092803132</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.170935460853341</v>
+        <v>-4.187759070004959</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.949895650964283</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.164248118567771</v>
+        <v>-9.1078726625313</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4741481258768592</v>
+        <v>0.4218443760241636</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.426759058380669</v>
+        <v>-4.448793404063293</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.103862529909642</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.647364002376426</v>
+        <v>-8.591708622996249</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4455021672591626</v>
+        <v>0.3914702334313591</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.403664236167864</v>
+        <v>-4.429377518949014</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.217748496314766</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.553675483241035</v>
+        <v>-8.488017584489778</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4096423497756749</v>
+        <v>0.3516303558839867</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.468824627411134</v>
+        <v>-4.499787923631817</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.293991524311635</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.988035631267102</v>
+        <v>-7.93849435731401</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4006872146319342</v>
+        <v>0.3533585398590945</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.709173122979542</v>
+        <v>-4.737740527780188</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.336387831240808</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.89950547945135</v>
+        <v>-7.850933035908546</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5237286767384758</v>
+        <v>0.4677328974844134</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.770222531130511</v>
+        <v>-4.799012505079466</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.34964147875248</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.56311185023604</v>
+        <v>-7.521687804044819</v>
       </c>
       <c r="F61" t="n">
-        <v>0.475640648400816</v>
+        <v>0.4188724232790917</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.879909844338491</v>
+        <v>-4.912706062957015</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.339017048697218</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.281574969927563</v>
+        <v>-7.240085462222133</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4477540433479394</v>
+        <v>0.3909072644091648</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.070612327531073</v>
+        <v>-5.104678499525244</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.309217833696622</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.102707928503901</v>
+        <v>-7.06120532849563</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4146305171583725</v>
+        <v>0.3579932150650655</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.022615945313305</v>
+        <v>-5.058135362922908</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.26518727165562</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.889971099628695</v>
+        <v>-6.849450422333552</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2114903462661508</v>
+        <v>0.1566074127536352</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.024029914020212</v>
+        <v>-5.053094826328843</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.213311206090726</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.834629935516719</v>
+        <v>-6.790103013552008</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1234315173527013</v>
+        <v>0.06679421525939432</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.077119202043411</v>
+        <v>-5.108501451955028</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.158219281835658</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.552582455397414</v>
+        <v>-6.519851698293099</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1661778861309369</v>
+        <v>0.1118055524292485</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.045763136737477</v>
+        <v>-5.075207725828519</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.10358305283266</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.440420696952346</v>
+        <v>-6.405411879153571</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04042631733615802</v>
+        <v>-0.02013867560966677</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.010348457550608</v>
+        <v>-5.031492526639996</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.051997909280236</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.227317283597571</v>
+        <v>-6.189061574694048</v>
       </c>
       <c r="F68" t="n">
-        <v>0.006621991398821311</v>
+        <v>-0.05369424779301069</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.000869630293199</v>
+        <v>-5.016384009160644</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.004697025398297</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.247400876156779</v>
+        <v>-6.211750535518759</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.07633083940635506</v>
+        <v>-0.1323266186604174</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.886246518913887</v>
+        <v>-4.909275879612482</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.96152325952252</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.383050225899903</v>
+        <v>-6.352741544821307</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1081713199174329</v>
+        <v>-0.1666284521057398</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.823207080730976</v>
+        <v>-4.842164735245795</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.921098980316774</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.403434941424471</v>
+        <v>-6.372000322301486</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1094805502016055</v>
+        <v>-0.1642063760800204</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.770864053969754</v>
+        <v>-4.787177063310545</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.881007525236618</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.519236360059537</v>
+        <v>-6.482538635194179</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2216815855551979</v>
+        <v>-0.2714585209594404</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.649302022084329</v>
+        <v>-4.659605664420766</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.837689388060746</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.608552050045793</v>
+        <v>-6.573752709092485</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2174396794344786</v>
+        <v>-0.2702540290980016</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.401726575347288</v>
+        <v>-4.41433446298387</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.787614103714684</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.900510403416284</v>
+        <v>-6.872217936975314</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.228987090540881</v>
+        <v>-0.2778737493518861</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.110134806456365</v>
+        <v>-4.119862387467768</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.729127555468496</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.131576456269907</v>
+        <v>-7.102079497967498</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3658540244482854</v>
+        <v>-0.4123971610506215</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.844858566277312</v>
+        <v>-3.859129176374793</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.659186603689808</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.402809694241946</v>
+        <v>-7.3760621195363</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.4685238633331011</v>
+        <v>-0.5145694924274518</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.48705902191578</v>
+        <v>-3.50313636980542</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.574576550266556</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.902935662795882</v>
+        <v>-7.880574009542214</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3482186925204803</v>
+        <v>-0.391724414863536</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.360783761007332</v>
+        <v>-3.377659739370317</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.472169607871848</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.304083821866369</v>
+        <v>-8.280190369180218</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4411609503938937</v>
+        <v>-0.4838418576579206</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.379191538802799</v>
+        <v>-3.392506410792834</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.349130978533918</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.769685387826673</v>
+        <v>-8.751578732996565</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4848892418852587</v>
+        <v>-0.5254753806946095</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.09908171950407</v>
+        <v>-3.117842989476263</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.203033917154646</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.340732360874238</v>
+        <v>-9.323751644088521</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5473133418346087</v>
+        <v>-0.5935160785630599</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.725532134823942</v>
+        <v>-2.745759742714408</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.032022511578923</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.90393704451961</v>
+        <v>-9.894497494170727</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5791407300428447</v>
+        <v>-0.6078259655690665</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.573006806717833</v>
+        <v>-2.58421381795035</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.834661351673224</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.80790818652943</v>
+        <v>-10.79018120848173</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5625004131310108</v>
+        <v>-0.6029949058204696</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.17606127685954</v>
+        <v>-2.192780147588425</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.60980429771085</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.60136720025224</v>
+        <v>-11.59374747999835</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6373360161743171</v>
+        <v>-0.6710748805974451</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.940661671765305</v>
+        <v>-1.956162958329909</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.357036833740199</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.54613395791687</v>
+        <v>-12.54212771324731</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5355302692770552</v>
+        <v>-0.5708663946468738</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.719807615128228</v>
+        <v>-1.72831761197535</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.077203744939319</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.70422669808459</v>
+        <v>-13.7116631260987</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6291271422925548</v>
+        <v>-0.6647512983248914</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.570188778252983</v>
+        <v>-1.578122713775069</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.771016046491075</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.83076698840376</v>
+        <v>-14.83080626531228</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6927295494976601</v>
+        <v>-0.7229073075478387</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.29513258785116</v>
+        <v>-1.314011688548929</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.439772808275266</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.95402111070965</v>
+        <v>-15.95734655563144</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7172383404173712</v>
+        <v>-0.749275205471075</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.217652339633825</v>
+        <v>-1.238704762603321</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.085760878167881</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.28601890952401</v>
+        <v>-17.295615567507</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9044189941455288</v>
+        <v>-0.9330649527632255</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.056878860737429</v>
+        <v>-1.075064069384587</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.7118694818167505</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.76289613158492</v>
+        <v>-18.78537561556417</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9233111871461396</v>
+        <v>-0.9480687318198436</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.100292936960592</v>
+        <v>-1.117352207563362</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3215417608574758</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.31894250892975</v>
+        <v>-20.3437786074205</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.015873768237143</v>
+        <v>-1.025391872403078</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.02306144249725</v>
+        <v>-1.038497267547646</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.0811746000957588</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.96791805184515</v>
+        <v>-21.98876099796917</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.132172694380196</v>
+        <v>-1.139936429965339</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.02222353511538</v>
+        <v>-1.049887571019947</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.4919801188093274</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.61866105564418</v>
+        <v>-23.6426723390559</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.275611964314146</v>
+        <v>-1.277601994346089</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.215125525185372</v>
+        <v>-1.239320100836882</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.9066713656904454</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.67654849321521</v>
+        <v>-25.7009263611065</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.282066469615117</v>
+        <v>-1.288049652013786</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.446283224158887</v>
+        <v>-1.479027073566044</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.319188930331012</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.67537655266721</v>
+        <v>-27.69614094497419</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.280600131696844</v>
+        <v>-1.289385066903642</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.41232179058745</v>
+        <v>-1.460003957537016</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.72475717217943</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.00115869098564</v>
+        <v>-30.00979961086118</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.598350321665536</v>
+        <v>-1.600680751571363</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.660905344643303</v>
+        <v>-1.707736511908157</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.117918712353672</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.13134182484868</v>
+        <v>-32.14021840617536</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.590508032263342</v>
+        <v>-1.608588502487766</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.925055646777968</v>
+        <v>-1.987519023635843</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.492471130434677</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.5092706053857</v>
+        <v>-34.51939095548235</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.744944836584343</v>
+        <v>-1.748191727689091</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.082359665421307</v>
+        <v>-2.148685271617491</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.842952158025783</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.56833635021248</v>
+        <v>-36.59603966302557</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.957184157951564</v>
+        <v>-1.964777693599765</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.304496767736873</v>
+        <v>-2.380392847310359</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.162169457805295</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.88196883149379</v>
+        <v>-38.89432796537638</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.028314639290662</v>
+        <v>-2.024544056072244</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.576528636182257</v>
+        <v>-2.646114225786031</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.44580416536893</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.22564814779685</v>
+        <v>-41.23029591530567</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.436990872495141</v>
+        <v>-2.42833686031676</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.753575847510919</v>
+        <v>-2.823122160206168</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.685330849549914</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.57072834050399</v>
+        <v>-43.57567723097816</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.614365391394845</v>
+        <v>-2.606248163632976</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.948716621366846</v>
+        <v>-3.009464906552455</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>3.879619437031714</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.91312461112857</v>
+        <v>-45.91342573409393</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.950536451461846</v>
+        <v>-2.931434781615768</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.312787378789564</v>
+        <v>-3.369712711545389</v>
       </c>
     </row>
   </sheetData>
